--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -298,8 +298,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -357,25 +362,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,12 +422,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.9250640869141" customWidth="1"/>
-    <col min="3" max="3" width="15.9842166900635" customWidth="1"/>
-    <col min="4" max="4" width="19.4687786102295" customWidth="1"/>
+    <col min="1" max="1" width="3.29" customWidth="1" style="5"/>
+    <col min="2" max="2" width="20.14" customWidth="1" style="7"/>
+    <col min="3" max="3" width="15.43" customWidth="1" style="7"/>
+    <col min="4" max="4" width="11.8" customWidth="1" style="13"/>
     <col min="5" max="5" width="11.8663787841797" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.7143135070801" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="13"/>
+    <col min="7" max="7" width="15.1" customWidth="1" style="13"/>
     <col min="8" max="8" width="12.3809814453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -406,700 +436,762 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="5">
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="5">
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="5">
+      <c r="F5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="5">
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="5">
+      <c r="F7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="40" customHeight="1">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="5">
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="40" customHeight="1">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="5">
+      <c r="F9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="40" customHeight="1">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="5">
+      <c r="H10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="40" customHeight="1">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="5">
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="5">
+      <c r="G12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="40" customHeight="1">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="5">
+      <c r="F13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="40" customHeight="1">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="5">
+      <c r="F14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="40" customHeight="1">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="5">
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="40" customHeight="1">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="5">
+      <c r="F16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="40" customHeight="1">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="40" customHeight="1">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="5">
+      <c r="F18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="40" customHeight="1">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="5">
+      <c r="G19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="40" customHeight="1">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="F20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="40" customHeight="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="F21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="40" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="5">
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="40" customHeight="1">
+      <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" ht="30" customHeight="1">
-      <c r="A24" s="5">
+      <c r="F23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="40" customHeight="1">
+      <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" ht="30" customHeight="1">
-      <c r="A25" s="5">
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="40" customHeight="1">
+      <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" ht="30" customHeight="1">
-      <c r="A26" s="5">
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="40" customHeight="1">
+      <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" ht="30" customHeight="1">
-      <c r="A27" s="5">
+      <c r="H26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="40" customHeight="1">
+      <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" ht="30" customHeight="1">
-      <c r="A28" s="5">
+      <c r="G27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" ht="40" customHeight="1">
+      <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
+      <c r="H28" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" ht="40" customHeight="1"/>
+    <row r="30" ht="40" customHeight="1"/>
+    <row r="31" ht="40" customHeight="1"/>
+    <row r="32" ht="40" customHeight="1"/>
+    <row r="33" ht="40" customHeight="1"/>
+    <row r="34" ht="40" customHeight="1"/>
+    <row r="35" ht="40" customHeight="1"/>
+    <row r="36" ht="40" customHeight="1"/>
+    <row r="37" ht="40" customHeight="1"/>
+    <row r="38" ht="40" customHeight="1"/>
+    <row r="39" ht="40" customHeight="1"/>
+    <row r="40" ht="40" customHeight="1"/>
+    <row r="41" ht="40" customHeight="1"/>
+    <row r="42" ht="40" customHeight="1"/>
+    <row r="43" ht="40" customHeight="1"/>
+    <row r="44" ht="40" customHeight="1"/>
+    <row r="45" ht="40" customHeight="1"/>
+    <row r="46" ht="40" customHeight="1"/>
+    <row r="47" ht="40" customHeight="1"/>
+    <row r="48" ht="40" customHeight="1"/>
+    <row r="49" ht="40" customHeight="1"/>
+    <row r="50" ht="40" customHeight="1"/>
+    <row r="51" ht="40" customHeight="1"/>
+    <row r="52" ht="40" customHeight="1"/>
+    <row r="53" ht="40" customHeight="1"/>
+    <row r="54" ht="40" customHeight="1"/>
+    <row r="55" ht="40" customHeight="1"/>
+    <row r="56" ht="40" customHeight="1"/>
+    <row r="57" ht="40" customHeight="1"/>
+    <row r="58" ht="40" customHeight="1"/>
+    <row r="59" ht="40" customHeight="1"/>
+    <row r="60" ht="40" customHeight="1"/>
+    <row r="61" ht="40" customHeight="1"/>
+    <row r="62" ht="40" customHeight="1"/>
+    <row r="63" ht="40" customHeight="1"/>
+    <row r="64" ht="40" customHeight="1"/>
+    <row r="65" ht="40" customHeight="1"/>
+    <row r="66" ht="40" customHeight="1"/>
+    <row r="67" ht="40" customHeight="1"/>
+    <row r="68" ht="40" customHeight="1"/>
+    <row r="69" ht="40" customHeight="1"/>
+    <row r="70" ht="40" customHeight="1"/>
+    <row r="71" ht="40" customHeight="1"/>
+    <row r="72" ht="40" customHeight="1"/>
+    <row r="73" ht="40" customHeight="1"/>
+    <row r="74" ht="40" customHeight="1"/>
+    <row r="75" ht="40" customHeight="1"/>
+    <row r="76" ht="40" customHeight="1"/>
+    <row r="77" ht="40" customHeight="1"/>
+    <row r="78" ht="40" customHeight="1"/>
+    <row r="79" ht="40" customHeight="1"/>
+    <row r="80" ht="40" customHeight="1"/>
+    <row r="81" ht="40" customHeight="1"/>
+    <row r="82" ht="40" customHeight="1"/>
+    <row r="83" ht="40" customHeight="1"/>
+    <row r="84" ht="40" customHeight="1"/>
+    <row r="85" ht="40" customHeight="1"/>
+    <row r="86" ht="40" customHeight="1"/>
+    <row r="87" ht="40" customHeight="1"/>
+    <row r="88" ht="40" customHeight="1"/>
+    <row r="89" ht="40" customHeight="1"/>
+    <row r="90" ht="40" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:H1"/>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\XLSX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915838B4-4BC7-4324-820A-0109EDC20D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$3</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="93">
   <si>
     <t>Période de présence aux cours 2025 - 2026 (01/11/2025)</t>
   </si>
@@ -296,8 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -332,7 +342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8E8E8" tint="0"/>
+        <fgColor rgb="FFE8E8E8"/>
       </patternFill>
     </fill>
   </fills>
@@ -345,65 +355,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,792 +449,1441 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.29" customWidth="1" style="5"/>
-    <col min="2" max="2" width="20.14" customWidth="1" style="7"/>
-    <col min="3" max="3" width="15.43" customWidth="1" style="7"/>
-    <col min="4" max="4" width="11.8" customWidth="1" style="13"/>
-    <col min="5" max="5" width="11.8663787841797" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="13"/>
-    <col min="7" max="7" width="15.1" customWidth="1" style="13"/>
-    <col min="8" max="8" width="12.3809814453125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="21">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="21">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" s="6">
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" s="6">
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="6">
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="40" customHeight="1">
-      <c r="A8" s="6">
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="40" customHeight="1">
-      <c r="A9" s="6">
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="40" customHeight="1">
-      <c r="A10" s="6">
+      <c r="G9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="40" customHeight="1">
-      <c r="A11" s="6">
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="40" customHeight="1">
-      <c r="A12" s="6">
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="40" customHeight="1">
-      <c r="A13" s="6">
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="40" customHeight="1">
-      <c r="A14" s="6">
+      <c r="G13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="40" customHeight="1">
-      <c r="A15" s="6">
+      <c r="G14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="40" customHeight="1">
-      <c r="A16" s="6">
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="40" customHeight="1">
-      <c r="A17" s="6">
+      <c r="G16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" ht="40" customHeight="1">
-      <c r="A18" s="6">
-        <v>15</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" ht="40" customHeight="1">
-      <c r="A19" s="6">
+      <c r="G18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="40" customHeight="1">
-      <c r="A20" s="6">
+      <c r="G19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" ht="40" customHeight="1">
-      <c r="A21" s="6">
-        <v>18</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="G20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="40" customHeight="1">
-      <c r="A22" s="6">
+      <c r="G21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="40" customHeight="1">
-      <c r="A23" s="6">
+      <c r="H22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" ht="40" customHeight="1">
-      <c r="A24" s="6">
+      <c r="G23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" ht="40" customHeight="1">
-      <c r="A25" s="6">
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" ht="40" customHeight="1">
-      <c r="A26" s="6">
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" ht="40" customHeight="1">
-      <c r="A27" s="6">
+      <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" ht="40" customHeight="1">
-      <c r="A28" s="6">
+      <c r="G27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" ht="40" customHeight="1"/>
-    <row r="30" ht="40" customHeight="1"/>
-    <row r="31" ht="40" customHeight="1"/>
-    <row r="32" ht="40" customHeight="1"/>
-    <row r="33" ht="40" customHeight="1"/>
-    <row r="34" ht="40" customHeight="1"/>
-    <row r="35" ht="40" customHeight="1"/>
-    <row r="36" ht="40" customHeight="1"/>
-    <row r="37" ht="40" customHeight="1"/>
-    <row r="38" ht="40" customHeight="1"/>
-    <row r="39" ht="40" customHeight="1"/>
-    <row r="40" ht="40" customHeight="1"/>
-    <row r="41" ht="40" customHeight="1"/>
-    <row r="42" ht="40" customHeight="1"/>
-    <row r="43" ht="40" customHeight="1"/>
-    <row r="44" ht="40" customHeight="1"/>
-    <row r="45" ht="40" customHeight="1"/>
-    <row r="46" ht="40" customHeight="1"/>
-    <row r="47" ht="40" customHeight="1"/>
-    <row r="48" ht="40" customHeight="1"/>
-    <row r="49" ht="40" customHeight="1"/>
-    <row r="50" ht="40" customHeight="1"/>
-    <row r="51" ht="40" customHeight="1"/>
-    <row r="52" ht="40" customHeight="1"/>
-    <row r="53" ht="40" customHeight="1"/>
-    <row r="54" ht="40" customHeight="1"/>
-    <row r="55" ht="40" customHeight="1"/>
-    <row r="56" ht="40" customHeight="1"/>
-    <row r="57" ht="40" customHeight="1"/>
-    <row r="58" ht="40" customHeight="1"/>
-    <row r="59" ht="40" customHeight="1"/>
-    <row r="60" ht="40" customHeight="1"/>
-    <row r="61" ht="40" customHeight="1"/>
-    <row r="62" ht="40" customHeight="1"/>
-    <row r="63" ht="40" customHeight="1"/>
-    <row r="64" ht="40" customHeight="1"/>
-    <row r="65" ht="40" customHeight="1"/>
-    <row r="66" ht="40" customHeight="1"/>
-    <row r="67" ht="40" customHeight="1"/>
-    <row r="68" ht="40" customHeight="1"/>
-    <row r="69" ht="40" customHeight="1"/>
-    <row r="70" ht="40" customHeight="1"/>
-    <row r="71" ht="40" customHeight="1"/>
-    <row r="72" ht="40" customHeight="1"/>
-    <row r="73" ht="40" customHeight="1"/>
-    <row r="74" ht="40" customHeight="1"/>
-    <row r="75" ht="40" customHeight="1"/>
-    <row r="76" ht="40" customHeight="1"/>
-    <row r="77" ht="40" customHeight="1"/>
-    <row r="78" ht="40" customHeight="1"/>
-    <row r="79" ht="40" customHeight="1"/>
-    <row r="80" ht="40" customHeight="1"/>
-    <row r="81" ht="40" customHeight="1"/>
-    <row r="82" ht="40" customHeight="1"/>
-    <row r="83" ht="40" customHeight="1"/>
-    <row r="84" ht="40" customHeight="1"/>
-    <row r="85" ht="40" customHeight="1"/>
-    <row r="86" ht="40" customHeight="1"/>
-    <row r="87" ht="40" customHeight="1"/>
-    <row r="88" ht="40" customHeight="1"/>
-    <row r="89" ht="40" customHeight="1"/>
-    <row r="90" ht="40" customHeight="1"/>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="11">
+        <v>27</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="11">
+        <v>28</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="11">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="11">
+        <v>30</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A34" s="11">
+        <v>31</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A35" s="11">
+        <v>32</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A36" s="11">
+        <v>33</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A37" s="11">
+        <v>34</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A38" s="11">
+        <v>35</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A39" s="11">
+        <v>36</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A40" s="11">
+        <v>37</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A41" s="11">
+        <v>38</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A42" s="11">
+        <v>39</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="11">
+        <v>40</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A44" s="11">
+        <v>41</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A45" s="11">
+        <v>42</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A46" s="11">
+        <v>43</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A47" s="11">
+        <v>44</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A48" s="11">
+        <v>45</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A49" s="11">
+        <v>46</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A50" s="11">
+        <v>47</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A51" s="11">
+        <v>48</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A52" s="11">
+        <v>49</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A53" s="11">
+        <v>50</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A54" s="11">
+        <v>51</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A55" s="11">
+        <v>52</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A56" s="11">
+        <v>53</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A57" s="11">
+        <v>54</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A58" s="11">
+        <v>55</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A59" s="11">
+        <v>56</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" spans="1:8" ht="39.950000000000003" customHeight="1">
+      <c r="A60" s="11">
+        <v>57</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="3.472222222222222E-3" right="3.472222222222222E-3" top="3.472222222222222E-3" bottom="3.472222222222222E-3" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915838B4-4BC7-4324-820A-0109EDC20D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15B1A38-A885-4AD1-B02F-63755DD53D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15B1A38-A885-4AD1-B02F-63755DD53D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924FFE50-2841-44EB-9EEA-61B0548D5A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1883,6 +1883,7 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="3.472222222222222E-3" right="3.472222222222222E-3" top="3.472222222222222E-3" bottom="3.472222222222222E-3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924FFE50-2841-44EB-9EEA-61B0548D5A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D5008-3532-4B06-93AD-CFEB9BDE8B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D5008-3532-4B06-93AD-CFEB9BDE8B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2B01C7-FD2E-437D-A505-F1C2E78DACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2B01C7-FD2E-437D-A505-F1C2E78DACA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C9D42E-734B-4610-A255-7E027FA028D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C9D42E-734B-4610-A255-7E027FA028D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC018E6-E85D-461F-B4C4-4F405BFE56DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC018E6-E85D-461F-B4C4-4F405BFE56DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127BD470-0453-41C4-84A2-D1B5B6CF5C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127BD470-0453-41C4-84A2-D1B5B6CF5C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAFAF38-D401-4383-8541-6F72B5EA2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAFAF38-D401-4383-8541-6F72B5EA2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57764669-D834-44CE-AC65-59ABFBCDF7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/liste groupe Samedi.xlsx
+++ b/liste groupe Samedi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yvesb\Documents\VERO\ASTI\TDB_ASTI\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57764669-D834-44CE-AC65-59ABFBCDF7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54543A7A-04F3-43B2-80E1-5E603426F06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,7 +787,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
